--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H2">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I2">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J2">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.399594442798</v>
+        <v>143.0191385</v>
       </c>
       <c r="N2">
-        <v>141.399594442798</v>
+        <v>286.038277</v>
       </c>
       <c r="O2">
-        <v>0.5657928619958436</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P2">
-        <v>0.5657928619958436</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q2">
-        <v>7323.15778413529</v>
+        <v>7795.843163728534</v>
       </c>
       <c r="R2">
-        <v>7323.15778413529</v>
+        <v>31183.37265491414</v>
       </c>
       <c r="S2">
-        <v>0.2771891537795854</v>
+        <v>0.2775775320267639</v>
       </c>
       <c r="T2">
-        <v>0.2771891537795854</v>
+        <v>0.2043328655721345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H3">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I3">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J3">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.11452145892454</v>
+        <v>0.038432</v>
       </c>
       <c r="N3">
-        <v>3.11452145892454</v>
+        <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.01246236961949179</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P3">
-        <v>0.01246236961949179</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q3">
-        <v>161.3026696127228</v>
+        <v>2.094893366096</v>
       </c>
       <c r="R3">
-        <v>161.3026696127228</v>
+        <v>12.569360196576</v>
       </c>
       <c r="S3">
-        <v>0.006105474142479938</v>
+        <v>7.459043469802882E-05</v>
       </c>
       <c r="T3">
-        <v>0.006105474142479938</v>
+        <v>8.236227093832207E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H4">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I4">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J4">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.93606295157313</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N4">
-        <v>4.93606295157313</v>
+        <v>9.501127</v>
       </c>
       <c r="O4">
-        <v>0.01975104097976753</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P4">
-        <v>0.01975104097976753</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q4">
-        <v>255.6412411877021</v>
+        <v>172.6325971649978</v>
       </c>
       <c r="R4">
-        <v>255.6412411877021</v>
+        <v>1035.795582989987</v>
       </c>
       <c r="S4">
-        <v>0.009676287389231668</v>
+        <v>0.006146728360491071</v>
       </c>
       <c r="T4">
-        <v>0.009676287389231668</v>
+        <v>0.006787177319190667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H5">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I5">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J5">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.099109079072</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N5">
-        <v>100.099109079072</v>
+        <v>15.391724</v>
       </c>
       <c r="O5">
-        <v>0.4005341149121445</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P5">
-        <v>0.4005341149121445</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q5">
-        <v>5184.184386992421</v>
+        <v>279.6629588223407</v>
       </c>
       <c r="R5">
-        <v>5184.184386992421</v>
+        <v>1677.977752934044</v>
       </c>
       <c r="S5">
-        <v>0.1962267816188323</v>
+        <v>0.009957634123578295</v>
       </c>
       <c r="T5">
-        <v>0.1962267816188323</v>
+        <v>0.01099515457861395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H6">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I6">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J6">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.364777692300393</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N6">
-        <v>0.364777692300393</v>
+        <v>312.62056</v>
       </c>
       <c r="O6">
-        <v>0.001459612492752738</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P6">
-        <v>0.001459612492752738</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q6">
-        <v>18.89202446000785</v>
+        <v>5680.220799066894</v>
       </c>
       <c r="R6">
-        <v>18.89202446000785</v>
+        <v>34081.32479440136</v>
       </c>
       <c r="S6">
-        <v>0.0007150828136732746</v>
+        <v>0.2022490239552214</v>
       </c>
       <c r="T6">
-        <v>0.0007150828136732746</v>
+        <v>0.2233220516202641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.43933043103389</v>
+        <v>54.5090905</v>
       </c>
       <c r="H7">
-        <v>5.43933043103389</v>
+        <v>109.018181</v>
       </c>
       <c r="I7">
-        <v>0.05145338877912179</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J7">
-        <v>0.05145338877912179</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.399594442798</v>
+        <v>0.427696</v>
       </c>
       <c r="N7">
-        <v>141.399594442798</v>
+        <v>0.855392</v>
       </c>
       <c r="O7">
-        <v>0.5657928619958436</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P7">
-        <v>0.5657928619958436</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q7">
-        <v>769.1191169885617</v>
+        <v>23.313319970488</v>
       </c>
       <c r="R7">
-        <v>769.1191169885617</v>
+        <v>93.253279881952</v>
       </c>
       <c r="S7">
-        <v>0.02911196009672414</v>
+        <v>0.0008300903038771893</v>
       </c>
       <c r="T7">
-        <v>0.02911196009672414</v>
+        <v>0.0006110535288515924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H8">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J8">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11452145892454</v>
+        <v>143.0191385</v>
       </c>
       <c r="N8">
-        <v>3.11452145892454</v>
+        <v>286.038277</v>
       </c>
       <c r="O8">
-        <v>0.01246236961949179</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P8">
-        <v>0.01246236961949179</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q8">
-        <v>16.94091134963632</v>
+        <v>822.3105617530789</v>
       </c>
       <c r="R8">
-        <v>16.94091134963632</v>
+        <v>4933.863370518474</v>
       </c>
       <c r="S8">
-        <v>0.0006412311491408272</v>
+        <v>0.02927905699193075</v>
       </c>
       <c r="T8">
-        <v>0.0006412311491408272</v>
+        <v>0.03232974354621507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H9">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J9">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.93606295157313</v>
+        <v>0.038432</v>
       </c>
       <c r="N9">
-        <v>4.93606295157313</v>
+        <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.01975104097976753</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P9">
-        <v>0.01975104097976753</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q9">
-        <v>26.84887742199069</v>
+        <v>0.220970702528</v>
       </c>
       <c r="R9">
-        <v>26.84887742199069</v>
+        <v>1.988736322752</v>
       </c>
       <c r="S9">
-        <v>0.001016257990324345</v>
+        <v>7.867847129521637E-06</v>
       </c>
       <c r="T9">
-        <v>0.001016257990324345</v>
+        <v>1.30314381382755E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H10">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J10">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.099109079072</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N10">
-        <v>100.099109079072</v>
+        <v>9.501127</v>
       </c>
       <c r="O10">
-        <v>0.4005341149121445</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P10">
-        <v>0.4005341149121445</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q10">
-        <v>544.4721301331771</v>
+        <v>18.20939762001933</v>
       </c>
       <c r="R10">
-        <v>544.4721301331771</v>
+        <v>163.884578580174</v>
       </c>
       <c r="S10">
-        <v>0.02060883753387601</v>
+        <v>0.000648360869363816</v>
       </c>
       <c r="T10">
-        <v>0.02060883753387601</v>
+        <v>0.001073873757497217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H11">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J11">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.364777692300393</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N11">
-        <v>0.364777692300393</v>
+        <v>15.391724</v>
       </c>
       <c r="O11">
-        <v>0.001459612492752738</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P11">
-        <v>0.001459612492752738</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q11">
-        <v>1.984146402291844</v>
+        <v>29.49902915449866</v>
       </c>
       <c r="R11">
-        <v>1.984146402291844</v>
+        <v>265.491262390488</v>
       </c>
       <c r="S11">
-        <v>7.51020090564697E-05</v>
+        <v>0.001050337665589347</v>
       </c>
       <c r="T11">
-        <v>7.51020090564697E-05</v>
+        <v>0.00173966398788692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.6624468725928</v>
+        <v>5.749654</v>
       </c>
       <c r="H12">
-        <v>18.6624468725928</v>
+        <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.176537562238649</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J12">
-        <v>0.176537562238649</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>141.399594442798</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N12">
-        <v>141.399594442798</v>
+        <v>312.62056</v>
       </c>
       <c r="O12">
-        <v>0.5657928619958436</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P12">
-        <v>0.5657928619958436</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q12">
-        <v>2638.862419094885</v>
+        <v>599.1533510954133</v>
       </c>
       <c r="R12">
-        <v>2638.862419094885</v>
+        <v>5392.38015985872</v>
       </c>
       <c r="S12">
-        <v>0.09988369258877458</v>
+        <v>0.02133335740724264</v>
       </c>
       <c r="T12">
-        <v>0.09988369258877458</v>
+        <v>0.03533423092208789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.6624468725928</v>
+        <v>5.749654</v>
       </c>
       <c r="H13">
-        <v>18.6624468725928</v>
+        <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.176537562238649</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J13">
-        <v>0.176537562238649</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11452145892454</v>
+        <v>0.427696</v>
       </c>
       <c r="N13">
-        <v>3.11452145892454</v>
+        <v>0.855392</v>
       </c>
       <c r="O13">
-        <v>0.01246236961949179</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P13">
-        <v>0.01246236961949179</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q13">
-        <v>58.12459126072945</v>
+        <v>2.459104017184</v>
       </c>
       <c r="R13">
-        <v>58.12459126072945</v>
+        <v>14.754624103104</v>
       </c>
       <c r="S13">
-        <v>0.00220007635234208</v>
+        <v>8.755846029110863E-05</v>
       </c>
       <c r="T13">
-        <v>0.00220007635234208</v>
+        <v>9.668148012052246E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H14">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I14">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J14">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.93606295157313</v>
+        <v>143.0191385</v>
       </c>
       <c r="N14">
-        <v>4.93606295157313</v>
+        <v>286.038277</v>
       </c>
       <c r="O14">
-        <v>0.01975104097976753</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P14">
-        <v>0.01975104097976753</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q14">
-        <v>92.11901259350715</v>
+        <v>32.12271825670017</v>
       </c>
       <c r="R14">
-        <v>92.11901259350715</v>
+        <v>192.736309540201</v>
       </c>
       <c r="S14">
-        <v>0.003486800626243818</v>
+        <v>0.001143756315823748</v>
       </c>
       <c r="T14">
-        <v>0.003486800626243818</v>
+        <v>0.001262928255515075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H15">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I15">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J15">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>100.099109079072</v>
+        <v>0.038432</v>
       </c>
       <c r="N15">
-        <v>100.099109079072</v>
+        <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.4005341149121445</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P15">
-        <v>0.4005341149121445</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q15">
-        <v>1868.094305182052</v>
+        <v>0.008631993738666667</v>
       </c>
       <c r="R15">
-        <v>1868.094305182052</v>
+        <v>0.077687943648</v>
       </c>
       <c r="S15">
-        <v>0.0707093162400049</v>
+        <v>3.07349374291877E-07</v>
       </c>
       <c r="T15">
-        <v>0.0707093162400049</v>
+        <v>5.090597582779666E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H16">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I16">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J16">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.364777692300393</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N16">
-        <v>0.364777692300393</v>
+        <v>9.501127</v>
       </c>
       <c r="O16">
-        <v>0.001459612492752738</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P16">
-        <v>0.001459612492752738</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q16">
-        <v>6.807644302863087</v>
+        <v>0.7113314319167777</v>
       </c>
       <c r="R16">
-        <v>6.807644302863087</v>
+        <v>6.401982887251</v>
       </c>
       <c r="S16">
-        <v>0.000257676431283646</v>
+        <v>2.532755202710986E-05</v>
       </c>
       <c r="T16">
-        <v>0.000257676431283646</v>
+        <v>4.1949776349468E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>29.8214531279293</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H17">
-        <v>29.8214531279293</v>
+        <v>0.673813</v>
       </c>
       <c r="I17">
-        <v>0.2820962692384267</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J17">
-        <v>0.2820962692384267</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>141.399594442798</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N17">
-        <v>141.399594442798</v>
+        <v>15.391724</v>
       </c>
       <c r="O17">
-        <v>0.5657928619958436</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P17">
-        <v>0.5657928619958436</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q17">
-        <v>4216.741377984113</v>
+        <v>1.152349302623556</v>
       </c>
       <c r="R17">
-        <v>4216.741377984113</v>
+        <v>10.371143723612</v>
       </c>
       <c r="S17">
-        <v>0.1596080555307595</v>
+        <v>4.103036307134043E-05</v>
       </c>
       <c r="T17">
-        <v>0.1596080555307595</v>
+        <v>6.795818847940239E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>29.8214531279293</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H18">
-        <v>29.8214531279293</v>
+        <v>0.673813</v>
       </c>
       <c r="I18">
-        <v>0.2820962692384267</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J18">
-        <v>0.2820962692384267</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11452145892454</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N18">
-        <v>3.11452145892454</v>
+        <v>312.62056</v>
       </c>
       <c r="O18">
-        <v>0.01246236961949179</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P18">
-        <v>0.01246236961949179</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q18">
-        <v>92.87955570324814</v>
+        <v>23.40531082169778</v>
       </c>
       <c r="R18">
-        <v>92.87955570324814</v>
+        <v>210.64779739528</v>
       </c>
       <c r="S18">
-        <v>0.003515587975528945</v>
+        <v>0.0008333657152613811</v>
       </c>
       <c r="T18">
-        <v>0.003515587975528945</v>
+        <v>0.001380295471710402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>29.8214531279293</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H19">
-        <v>29.8214531279293</v>
+        <v>0.673813</v>
       </c>
       <c r="I19">
-        <v>0.2820962692384267</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J19">
-        <v>0.2820962692384267</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.93606295157313</v>
+        <v>0.427696</v>
       </c>
       <c r="N19">
-        <v>4.93606295157313</v>
+        <v>0.855392</v>
       </c>
       <c r="O19">
-        <v>0.01975104097976753</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P19">
-        <v>0.01975104097976753</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q19">
-        <v>147.2005699468465</v>
+        <v>0.09606237494933334</v>
       </c>
       <c r="R19">
-        <v>147.2005699468465</v>
+        <v>0.576374249696</v>
       </c>
       <c r="S19">
-        <v>0.0055716949739677</v>
+        <v>3.420381400581251E-06</v>
       </c>
       <c r="T19">
-        <v>0.0055716949739677</v>
+        <v>3.776762808362011E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H20">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I20">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J20">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.099109079072</v>
+        <v>143.0191385</v>
       </c>
       <c r="N20">
-        <v>100.099109079072</v>
+        <v>286.038277</v>
       </c>
       <c r="O20">
-        <v>0.4005341149121445</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P20">
-        <v>0.4005341149121445</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q20">
-        <v>2985.100889549028</v>
+        <v>10.47367289672433</v>
       </c>
       <c r="R20">
-        <v>2985.100889549028</v>
+        <v>62.842037380346</v>
       </c>
       <c r="S20">
-        <v>0.1129891795194312</v>
+        <v>0.0003729239048131245</v>
       </c>
       <c r="T20">
-        <v>0.1129891795194312</v>
+        <v>0.0004117801406030321</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.219698</v>
+      </c>
+      <c r="I21">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J21">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.038432</v>
+      </c>
+      <c r="N21">
+        <v>0.115296</v>
+      </c>
+      <c r="O21">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P21">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q21">
+        <v>0.002814477845333333</v>
+      </c>
+      <c r="R21">
+        <v>0.025330300608</v>
+      </c>
+      <c r="S21">
+        <v>1.002118433944979E-07</v>
+      </c>
+      <c r="T21">
+        <v>1.659798946802046E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.219698</v>
+      </c>
+      <c r="I22">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J22">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N22">
+        <v>9.501127</v>
+      </c>
+      <c r="O22">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P22">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q22">
+        <v>0.2319309555162222</v>
+      </c>
+      <c r="R22">
+        <v>2.087378599646</v>
+      </c>
+      <c r="S22">
+        <v>8.258096126450488E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.367780372955912E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.219698</v>
+      </c>
+      <c r="I23">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J23">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N23">
+        <v>15.391724</v>
+      </c>
+      <c r="O23">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P23">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q23">
+        <v>0.3757256643724445</v>
+      </c>
+      <c r="R23">
+        <v>3.381530979352</v>
+      </c>
+      <c r="S23">
+        <v>1.337802729547716E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.215789557718202E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.219698</v>
+      </c>
+      <c r="I24">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J24">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N24">
+        <v>312.62056</v>
+      </c>
+      <c r="O24">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P24">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q24">
+        <v>7.631345754542223</v>
+      </c>
+      <c r="R24">
+        <v>68.68211179088</v>
+      </c>
+      <c r="S24">
+        <v>0.0002717204638549493</v>
+      </c>
+      <c r="T24">
+        <v>0.000450047942891918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.219698</v>
+      </c>
+      <c r="I25">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J25">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.427696</v>
+      </c>
+      <c r="N25">
+        <v>0.855392</v>
+      </c>
+      <c r="O25">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P25">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q25">
+        <v>0.03132131860266667</v>
+      </c>
+      <c r="R25">
+        <v>0.187927911616</v>
+      </c>
+      <c r="S25">
+        <v>1.115221809233273E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.231420639660436E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H26">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J26">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>143.0191385</v>
+      </c>
+      <c r="N26">
+        <v>286.038277</v>
+      </c>
+      <c r="O26">
+        <v>0.5586909079605606</v>
+      </c>
+      <c r="P26">
+        <v>0.4580112546679992</v>
+      </c>
+      <c r="Q26">
+        <v>2701.809060688925</v>
+      </c>
+      <c r="R26">
+        <v>16210.85436413355</v>
+      </c>
+      <c r="S26">
+        <v>0.09620017685359582</v>
+      </c>
+      <c r="T26">
+        <v>0.1062236071207632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H27">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J27">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.038432</v>
+      </c>
+      <c r="N27">
+        <v>0.115296</v>
+      </c>
+      <c r="O27">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P27">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q27">
+        <v>0.7260281869226668</v>
+      </c>
+      <c r="R27">
+        <v>6.534253682304</v>
+      </c>
+      <c r="S27">
+        <v>2.585084231113163E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.281649692147851E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H28">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J28">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N28">
+        <v>9.501127</v>
+      </c>
+      <c r="O28">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P28">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q28">
+        <v>59.82936103188312</v>
+      </c>
+      <c r="R28">
+        <v>538.4642492869481</v>
+      </c>
+      <c r="S28">
+        <v>0.002130274561606952</v>
+      </c>
+      <c r="T28">
+        <v>0.003528352891219785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="H21">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="I21">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="J21">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="N21">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="O21">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="P21">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="Q21">
-        <v>10.87820085305039</v>
-      </c>
-      <c r="R21">
-        <v>10.87820085305039</v>
-      </c>
-      <c r="S21">
-        <v>0.0004117512387393474</v>
-      </c>
-      <c r="T21">
-        <v>0.0004117512387393474</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H29">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J29">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N29">
+        <v>15.391724</v>
+      </c>
+      <c r="O29">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P29">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q29">
+        <v>96.92292420668625</v>
+      </c>
+      <c r="R29">
+        <v>872.3063178601761</v>
+      </c>
+      <c r="S29">
+        <v>0.003451021978390059</v>
+      </c>
+      <c r="T29">
+        <v>0.005715893901455791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H30">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J30">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N30">
+        <v>312.62056</v>
+      </c>
+      <c r="O30">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P30">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q30">
+        <v>1968.596814907272</v>
+      </c>
+      <c r="R30">
+        <v>17717.37133416544</v>
+      </c>
+      <c r="S30">
+        <v>0.07009354010353928</v>
+      </c>
+      <c r="T30">
+        <v>0.1160952439358771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H31">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J31">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.427696</v>
+      </c>
+      <c r="N31">
+        <v>0.855392</v>
+      </c>
+      <c r="O31">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P31">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q31">
+        <v>8.079708353301335</v>
+      </c>
+      <c r="R31">
+        <v>48.47825011980801</v>
+      </c>
+      <c r="S31">
+        <v>0.000287684790099442</v>
+      </c>
+      <c r="T31">
+        <v>0.000317659666724408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.264707</v>
+      </c>
+      <c r="H32">
+        <v>60.529414</v>
+      </c>
+      <c r="I32">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J32">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>143.0191385</v>
+      </c>
+      <c r="N32">
+        <v>286.038277</v>
+      </c>
+      <c r="O32">
+        <v>0.5586909079605606</v>
+      </c>
+      <c r="P32">
+        <v>0.4580112546679992</v>
+      </c>
+      <c r="Q32">
+        <v>4328.43232209492</v>
+      </c>
+      <c r="R32">
+        <v>17313.72928837968</v>
+      </c>
+      <c r="S32">
+        <v>0.1541174618676334</v>
+      </c>
+      <c r="T32">
+        <v>0.1134503300327683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.264707</v>
+      </c>
+      <c r="H33">
+        <v>60.529414</v>
+      </c>
+      <c r="I33">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J33">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.038432</v>
+      </c>
+      <c r="N33">
+        <v>0.115296</v>
+      </c>
+      <c r="O33">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P33">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q33">
+        <v>1.163133219424</v>
+      </c>
+      <c r="R33">
+        <v>6.978799316544</v>
+      </c>
+      <c r="S33">
+        <v>4.141433347045987E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.572943659375371E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.264707</v>
+      </c>
+      <c r="H34">
+        <v>60.529414</v>
+      </c>
+      <c r="I34">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J34">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N34">
+        <v>9.501127</v>
+      </c>
+      <c r="O34">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P34">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q34">
+        <v>95.84960827492966</v>
+      </c>
+      <c r="R34">
+        <v>575.0976496495781</v>
+      </c>
+      <c r="S34">
+        <v>0.003412805664751509</v>
+      </c>
+      <c r="T34">
+        <v>0.003768397730326303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.264707</v>
+      </c>
+      <c r="H35">
+        <v>60.529414</v>
+      </c>
+      <c r="I35">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J35">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N35">
+        <v>15.391724</v>
+      </c>
+      <c r="O35">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P35">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q35">
+        <v>155.2753390282894</v>
+      </c>
+      <c r="R35">
+        <v>931.652034169736</v>
+      </c>
+      <c r="S35">
+        <v>0.005528708631880382</v>
+      </c>
+      <c r="T35">
+        <v>0.006104763970359399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.264707</v>
+      </c>
+      <c r="H36">
+        <v>60.529414</v>
+      </c>
+      <c r="I36">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J36">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N36">
+        <v>312.62056</v>
+      </c>
+      <c r="O36">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P36">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q36">
+        <v>3153.789883525307</v>
+      </c>
+      <c r="R36">
+        <v>18922.73930115184</v>
+      </c>
+      <c r="S36">
+        <v>0.1122933329999472</v>
+      </c>
+      <c r="T36">
+        <v>0.1239935650536339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.264707</v>
+      </c>
+      <c r="H37">
+        <v>60.529414</v>
+      </c>
+      <c r="I37">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J37">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.427696</v>
+      </c>
+      <c r="N37">
+        <v>0.855392</v>
+      </c>
+      <c r="O37">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P37">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q37">
+        <v>12.944094125072</v>
+      </c>
+      <c r="R37">
+        <v>51.776376500288</v>
+      </c>
+      <c r="S37">
+        <v>0.0004608853238962793</v>
+      </c>
+      <c r="T37">
+        <v>0.0003392710434603471</v>
       </c>
     </row>
   </sheetData>
